--- a/감염병 예방.xlsx
+++ b/감염병 예방.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yu946\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\big\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8155413B-3C63-419B-8056-5FEA4880305B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB73569B-6B2F-4A77-A394-B2602B787C5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8364" yWindow="540" windowWidth="12660" windowHeight="8988" xr2:uid="{F5A130C4-6D1C-4F7E-A4C9-F512823588F6}"/>
+    <workbookView xWindow="684" yWindow="600" windowWidth="22356" windowHeight="12360" xr2:uid="{F5A130C4-6D1C-4F7E-A4C9-F512823588F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>질병</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,12 +196,30 @@
 수두에 노출되고 3일 이내에 백신을 접종 받으면 발병을 예방하거나 증상을 완화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>장티푸스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B형간염</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예방접종을 반드시 맞는다.
+철저한 개인위생 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예방접종을 반드시 맞는다.
+혈액으로 전염되기 때문에 정맥주사 약물의 남용, 무분별한 성접촉, 면도기, 칫솔, 손톱깎이 등을 환자와 같이 사용하는 경우, 비위생적인 문신, 피어싱 혹은 침술 등의 시술 등은 주의를 요한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,21 +616,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BD1375-FA9C-42C5-9093-429BC64DEB2D}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.69921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.796875" style="4"/>
     <col min="4" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -623,7 +641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="43.2">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -634,7 +652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="41.4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="43.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -645,7 +663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="96.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="100.8">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -656,7 +674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -667,7 +685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="43.2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -678,7 +696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="55.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="57.6">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -689,7 +707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="41.4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="43.2">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -700,7 +718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="96.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="100.8">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -711,7 +729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="96.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="100.8">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -722,7 +740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="55.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="57.6">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -733,7 +751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="43.2">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -744,7 +762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="55.2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="57.6">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -755,7 +773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="54">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -766,7 +784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34.200000000000003" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="32.4">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -777,11 +795,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="5"/>
+    <row r="16" spans="1:3" ht="21.6">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="32.4">
+      <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
